--- a/charts/Vergleich_Performance.xlsx
+++ b/charts/Vergleich_Performance.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ultramof\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="120" windowWidth="24780" windowHeight="11385"/>
   </bookViews>
@@ -48,8 +53,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -100,48 +105,25 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="de-DE"/>
-              <a:t>SELECT Query</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:title>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="bar"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -165,6 +147,7 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:spPr>
               <a:noFill/>
@@ -174,20 +157,18 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
                         <a:lumOff val="25000"/>
                       </a:schemeClr>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Century" panose="02040604050505020304" pitchFamily="18" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
@@ -196,7 +177,13 @@
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:layout/>
@@ -302,6 +289,7 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:spPr>
               <a:noFill/>
@@ -311,20 +299,18 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
                         <a:lumOff val="25000"/>
                       </a:schemeClr>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Century" panose="02040604050505020304" pitchFamily="18" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
@@ -333,7 +319,13 @@
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:layout/>
@@ -417,17 +409,23 @@
           </c:val>
         </c:ser>
         <c:dLbls>
+          <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="182"/>
-        <c:axId val="130992768"/>
-        <c:axId val="131031808"/>
+        <c:axId val="-268680848"/>
+        <c:axId val="-268673776"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="130992768"/>
+        <c:axId val="-268680848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:title>
           <c:tx>
@@ -436,31 +434,27 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
                         <a:lumOff val="35000"/>
                       </a:schemeClr>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Century" panose="02040604050505020304" pitchFamily="18" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Query</a:t>
+                  <a:t>Query Anzahl</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> Anzahl</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -468,9 +462,30 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Century" panose="02040604050505020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -490,14 +505,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Century" panose="02040604050505020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
@@ -505,17 +520,19 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="131031808"/>
+        <c:crossAx val="-268673776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="131031808"/>
+        <c:axId val="-268673776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
@@ -538,14 +555,14 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
                         <a:lumOff val="35000"/>
                       </a:schemeClr>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Century" panose="02040604050505020304" pitchFamily="18" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
@@ -558,6 +575,7 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -565,9 +583,30 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Century" panose="02040604050505020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -581,14 +620,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Century" panose="02040604050505020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
@@ -596,49 +635,10 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="130992768"/>
+        <c:crossAx val="-268680848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
-      <c:dTable>
-        <c:showHorzBorder val="1"/>
-        <c:showVertBorder val="1"/>
-        <c:showOutline val="1"/>
-        <c:showKeys val="1"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr rtl="0">
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
-          </a:p>
-        </c:txPr>
-      </c:dTable>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -649,6 +649,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -670,14 +671,16 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="1200">
+          <a:latin typeface="Century" panose="02040604050505020304" pitchFamily="18" charset="0"/>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000051" r="0.70000000000000051" t="0.78740157499999996" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000062" r="0.70000000000000062" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -685,48 +688,25 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="de-DE"/>
-              <a:t>Update Query</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:title>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="bar"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -750,6 +730,7 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:spPr>
               <a:noFill/>
@@ -759,20 +740,18 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
                         <a:lumOff val="25000"/>
                       </a:schemeClr>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Century" panose="02040604050505020304" pitchFamily="18" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
@@ -781,7 +760,13 @@
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:layout/>
@@ -887,6 +872,7 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:spPr>
               <a:noFill/>
@@ -896,20 +882,18 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
                         <a:lumOff val="25000"/>
                       </a:schemeClr>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Century" panose="02040604050505020304" pitchFamily="18" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
@@ -918,7 +902,13 @@
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:layout/>
@@ -1002,17 +992,23 @@
           </c:val>
         </c:ser>
         <c:dLbls>
+          <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="182"/>
-        <c:axId val="131067264"/>
-        <c:axId val="131307008"/>
+        <c:axId val="-268681936"/>
+        <c:axId val="-268687920"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="131067264"/>
+        <c:axId val="-268681936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:title>
           <c:tx>
@@ -1021,14 +1017,14 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
                         <a:lumOff val="35000"/>
                       </a:schemeClr>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Century" panose="02040604050505020304" pitchFamily="18" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
@@ -1041,6 +1037,7 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -1048,9 +1045,30 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Century" panose="02040604050505020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1070,14 +1088,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Century" panose="02040604050505020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
@@ -1085,17 +1103,19 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="131307008"/>
+        <c:crossAx val="-268687920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="131307008"/>
+        <c:axId val="-268687920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1118,14 +1138,14 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
                         <a:lumOff val="35000"/>
                       </a:schemeClr>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Century" panose="02040604050505020304" pitchFamily="18" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
@@ -1138,6 +1158,7 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -1145,9 +1166,30 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Century" panose="02040604050505020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1161,14 +1203,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Century" panose="02040604050505020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
@@ -1176,49 +1218,10 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="131067264"/>
+        <c:crossAx val="-268681936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
-      <c:dTable>
-        <c:showHorzBorder val="1"/>
-        <c:showVertBorder val="1"/>
-        <c:showOutline val="1"/>
-        <c:showKeys val="1"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr rtl="0">
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
-          </a:p>
-        </c:txPr>
-      </c:dTable>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1229,6 +1232,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1250,14 +1254,16 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="1200">
+          <a:latin typeface="Century" panose="02040604050505020304" pitchFamily="18" charset="0"/>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000007" r="0.70000000000000007" t="0.78740157499999996" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000018" r="0.70000000000000018" t="0.78740157499999996" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1265,48 +1271,25 @@
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="de-DE"/>
-              <a:t>Insert Query</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:title>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="bar"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1330,6 +1313,7 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:spPr>
               <a:noFill/>
@@ -1339,20 +1323,18 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
                         <a:lumOff val="25000"/>
                       </a:schemeClr>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Century" panose="02040604050505020304" pitchFamily="18" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
@@ -1361,7 +1343,13 @@
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:layout/>
@@ -1467,6 +1455,7 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:spPr>
               <a:noFill/>
@@ -1476,20 +1465,18 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
                         <a:lumOff val="25000"/>
                       </a:schemeClr>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Century" panose="02040604050505020304" pitchFamily="18" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
@@ -1498,7 +1485,13 @@
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:layout/>
@@ -1582,17 +1575,23 @@
           </c:val>
         </c:ser>
         <c:dLbls>
+          <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="182"/>
-        <c:axId val="131346816"/>
-        <c:axId val="131348736"/>
+        <c:axId val="-145961152"/>
+        <c:axId val="-145957344"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="131346816"/>
+        <c:axId val="-145961152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:title>
           <c:tx>
@@ -1601,14 +1600,14 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
                         <a:lumOff val="35000"/>
                       </a:schemeClr>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Century" panose="02040604050505020304" pitchFamily="18" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
@@ -1621,6 +1620,7 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -1628,9 +1628,30 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Century" panose="02040604050505020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1650,14 +1671,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Century" panose="02040604050505020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
@@ -1665,17 +1686,19 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="131348736"/>
+        <c:crossAx val="-145957344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="131348736"/>
+        <c:axId val="-145957344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1698,14 +1721,14 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
                         <a:lumOff val="35000"/>
                       </a:schemeClr>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Century" panose="02040604050505020304" pitchFamily="18" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
@@ -1718,6 +1741,7 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -1725,9 +1749,30 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Century" panose="02040604050505020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1741,14 +1786,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Century" panose="02040604050505020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
@@ -1756,49 +1801,10 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="131346816"/>
+        <c:crossAx val="-145961152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
-      <c:dTable>
-        <c:showHorzBorder val="1"/>
-        <c:showVertBorder val="1"/>
-        <c:showOutline val="1"/>
-        <c:showKeys val="1"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr rtl="0">
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
-          </a:p>
-        </c:txPr>
-      </c:dTable>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1809,6 +1815,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1830,14 +1837,16 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="1200">
+          <a:latin typeface="Century" panose="02040604050505020304" pitchFamily="18" charset="0"/>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000007" r="0.70000000000000007" t="0.78740157499999996" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000018" r="0.70000000000000018" t="0.78740157499999996" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3503,16 +3512,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>495299</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>119061</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>128586</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>733424</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>109536</xdr:rowOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3533,16 +3542,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>176212</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>16192</xdr:rowOff>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3565,7 +3574,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa-Design">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
   <a:themeElements>
     <a:clrScheme name="Larissa">
       <a:dk1>
@@ -3607,7 +3616,7 @@
     </a:clrScheme>
     <a:fontScheme name="Larissa">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3639,9 +3648,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3673,6 +3683,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Larissa">
@@ -3848,19 +3859,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:R73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="O40" sqref="O40"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="Y47" sqref="Y47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:11">
+    <row r="3" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>2</v>
       </c>
@@ -3868,12 +3879,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="3:11">
+    <row r="5" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="3:11">
+    <row r="7" spans="3:11" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
         <v>0</v>
       </c>
@@ -3890,7 +3901,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="3:11">
+    <row r="8" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C8" s="1">
         <v>100000</v>
       </c>
@@ -3910,7 +3921,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="3:11">
+    <row r="9" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C9" s="1">
         <v>500000</v>
       </c>
@@ -3930,7 +3941,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="3:11">
+    <row r="10" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C10" s="1">
         <v>1000000</v>
       </c>
@@ -3950,7 +3961,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="11" spans="3:11">
+    <row r="11" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C11" s="1">
         <v>3000000</v>
       </c>
@@ -3970,7 +3981,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="12" spans="3:11">
+    <row r="12" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C12" s="1">
         <v>6000000</v>
       </c>
@@ -3990,7 +4001,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="13" spans="3:11">
+    <row r="13" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C13" s="1">
         <v>10000000</v>
       </c>
@@ -4010,7 +4021,7 @@
         <v>1357</v>
       </c>
     </row>
-    <row r="14" spans="3:11">
+    <row r="14" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C14" s="1">
         <v>15000000</v>
       </c>
@@ -4030,12 +4041,12 @@
         <v>1979</v>
       </c>
     </row>
-    <row r="17" spans="3:18">
+    <row r="17" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="3:18">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
         <v>0</v>
       </c>
@@ -4067,7 +4078,7 @@
         <v>15000000</v>
       </c>
     </row>
-    <row r="20" spans="3:18">
+    <row r="20" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C20" s="1">
         <v>100000</v>
       </c>
@@ -4105,7 +4116,7 @@
         <v>1979</v>
       </c>
     </row>
-    <row r="21" spans="3:18">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C21" s="1">
         <v>500000</v>
       </c>
@@ -4143,7 +4154,7 @@
         <v>73389</v>
       </c>
     </row>
-    <row r="22" spans="3:18">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C22" s="1">
         <v>1000000</v>
       </c>
@@ -4157,7 +4168,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="23" spans="3:18">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C23" s="1">
         <v>3000000</v>
       </c>
@@ -4171,7 +4182,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="24" spans="3:18">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C24" s="1">
         <v>6000000</v>
       </c>
@@ -4185,7 +4196,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="25" spans="3:18">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C25" s="1">
         <v>10000000</v>
       </c>
@@ -4199,7 +4210,7 @@
         <v>1890</v>
       </c>
     </row>
-    <row r="26" spans="3:18">
+    <row r="26" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C26" s="1">
         <v>15000000</v>
       </c>
@@ -4213,12 +4224,12 @@
         <v>2663</v>
       </c>
     </row>
-    <row r="30" spans="3:18">
+    <row r="30" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="3:18">
+    <row r="32" spans="3:18" x14ac:dyDescent="0.25">
       <c r="E32" t="s">
         <v>1</v>
       </c>
@@ -4250,7 +4261,7 @@
         <v>15000000</v>
       </c>
     </row>
-    <row r="33" spans="3:18">
+    <row r="33" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C33" s="1">
         <v>100000</v>
       </c>
@@ -4288,7 +4299,7 @@
         <v>41119</v>
       </c>
     </row>
-    <row r="34" spans="3:18">
+    <row r="34" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C34" s="1">
         <v>500000</v>
       </c>
@@ -4326,7 +4337,7 @@
         <v>10910000</v>
       </c>
     </row>
-    <row r="35" spans="3:18">
+    <row r="35" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C35" s="1">
         <v>1000000</v>
       </c>
@@ -4340,7 +4351,7 @@
         <v>2614</v>
       </c>
     </row>
-    <row r="36" spans="3:18">
+    <row r="36" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C36" s="1">
         <v>3000000</v>
       </c>
@@ -4354,7 +4365,7 @@
         <v>8425</v>
       </c>
     </row>
-    <row r="37" spans="3:18">
+    <row r="37" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C37" s="1">
         <v>6000000</v>
       </c>
@@ -4368,7 +4379,7 @@
         <v>15370</v>
       </c>
     </row>
-    <row r="38" spans="3:18">
+    <row r="38" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C38" s="1">
         <v>10000000</v>
       </c>
@@ -4382,7 +4393,7 @@
         <v>25624</v>
       </c>
     </row>
-    <row r="39" spans="3:18">
+    <row r="39" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C39" s="1">
         <v>15000000</v>
       </c>
@@ -4396,12 +4407,12 @@
         <v>41119</v>
       </c>
     </row>
-    <row r="42" spans="3:18">
+    <row r="42" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="3:18">
+    <row r="44" spans="3:18" x14ac:dyDescent="0.25">
       <c r="E44" t="s">
         <v>1</v>
       </c>
@@ -4409,11 +4420,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="3:18">
+    <row r="45" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C45" s="1"/>
       <c r="G45" s="1"/>
     </row>
-    <row r="46" spans="3:18">
+    <row r="46" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C46" s="1">
         <v>25000</v>
       </c>
@@ -4427,7 +4438,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="47" spans="3:18">
+    <row r="47" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C47" s="1">
         <v>50000</v>
       </c>
@@ -4441,7 +4452,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="48" spans="3:18">
+    <row r="48" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C48" s="1">
         <v>75000</v>
       </c>
@@ -4455,7 +4466,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="49" spans="3:18">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C49" s="1">
         <v>100000</v>
       </c>
@@ -4469,7 +4480,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="50" spans="3:18">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C50" s="1">
         <v>250000</v>
       </c>
@@ -4483,7 +4494,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="51" spans="3:18">
+    <row r="51" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C51" s="1">
         <v>500000</v>
       </c>
@@ -4497,7 +4508,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="52" spans="3:18">
+    <row r="52" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C52" s="1">
         <v>1000000</v>
       </c>
@@ -4511,7 +4522,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="60" spans="3:18">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.25">
       <c r="L60" s="1">
         <v>25000</v>
       </c>
@@ -4534,7 +4545,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="61" spans="3:18">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.25">
       <c r="K61" t="s">
         <v>4</v>
       </c>
@@ -4560,7 +4571,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="62" spans="3:18">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.25">
       <c r="K62" t="s">
         <v>2</v>
       </c>
@@ -4586,35 +4597,35 @@
         <v>153000</v>
       </c>
     </row>
-    <row r="66" spans="4:8">
+    <row r="66" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D66" s="1"/>
       <c r="H66" s="1"/>
     </row>
-    <row r="67" spans="4:8">
+    <row r="67" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D67" s="1"/>
       <c r="H67" s="1"/>
     </row>
-    <row r="68" spans="4:8">
+    <row r="68" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D68" s="1"/>
       <c r="H68" s="1"/>
     </row>
-    <row r="69" spans="4:8">
+    <row r="69" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D69" s="1"/>
       <c r="H69" s="1"/>
     </row>
-    <row r="70" spans="4:8">
+    <row r="70" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D70" s="1"/>
       <c r="H70" s="1"/>
     </row>
-    <row r="71" spans="4:8">
+    <row r="71" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D71" s="1"/>
       <c r="H71" s="1"/>
     </row>
-    <row r="72" spans="4:8">
+    <row r="72" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D72" s="1"/>
       <c r="H72" s="1"/>
     </row>
-    <row r="73" spans="4:8">
+    <row r="73" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D73" s="1"/>
       <c r="H73" s="1"/>
     </row>
@@ -4626,24 +4637,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/charts/Vergleich_Performance.xlsx
+++ b/charts/Vergleich_Performance.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ultramof\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Benjamin\Documents\GitHub\Bachelorarbeit\charts\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="24780" windowHeight="11385"/>
+    <workbookView xWindow="240" yWindow="720" windowWidth="24780" windowHeight="11385"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -242,25 +242,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>14</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>70</c:v>
+                  <c:v>700</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>138</c:v>
+                  <c:v>1380</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>427</c:v>
+                  <c:v>4270</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>788</c:v>
+                  <c:v>7880</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1357</c:v>
+                  <c:v>13570</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1979</c:v>
+                  <c:v>19790</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -384,25 +384,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1013</c:v>
+                  <c:v>10130</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2256</c:v>
+                  <c:v>22560</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4725</c:v>
+                  <c:v>47250</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13268</c:v>
+                  <c:v>132680</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>26080</c:v>
+                  <c:v>260800</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43682</c:v>
+                  <c:v>436820</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>73389</c:v>
+                  <c:v>733890</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -417,11 +417,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="182"/>
-        <c:axId val="-268680848"/>
-        <c:axId val="-268673776"/>
+        <c:axId val="-392804768"/>
+        <c:axId val="-392815104"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-268680848"/>
+        <c:axId val="-392804768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -448,7 +448,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Query Anzahl</a:t>
+                  <a:t>Anzahl der Tupeln</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -520,7 +520,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-268673776"/>
+        <c:crossAx val="-392815104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -528,7 +528,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-268673776"/>
+        <c:axId val="-392815104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -635,7 +635,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-268680848"/>
+        <c:crossAx val="-392804768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -647,6 +647,38 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Century" panose="02040604050505020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -825,19 +857,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>555</c:v>
+                  <c:v>5550</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1371</c:v>
+                  <c:v>13710</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2614</c:v>
+                  <c:v>26140</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8425</c:v>
+                  <c:v>84250</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15370</c:v>
+                  <c:v>153700</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>25624</c:v>
@@ -967,19 +999,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>36000</c:v>
+                  <c:v>360000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>131000</c:v>
+                  <c:v>1310000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>287000</c:v>
+                  <c:v>2870000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1028000</c:v>
+                  <c:v>10280000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1820000</c:v>
+                  <c:v>18200000</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>3538000</c:v>
@@ -1000,11 +1032,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="182"/>
-        <c:axId val="-268681936"/>
-        <c:axId val="-268687920"/>
+        <c:axId val="-392802592"/>
+        <c:axId val="-392816192"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-268681936"/>
+        <c:axId val="-392802592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1031,7 +1063,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Query Anzahl</a:t>
+                  <a:t>Anzahl der Tupeln</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1103,7 +1135,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-268687920"/>
+        <c:crossAx val="-392816192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1111,7 +1143,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-268687920"/>
+        <c:axId val="-392816192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1218,7 +1250,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-268681936"/>
+        <c:crossAx val="-392802592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1230,6 +1262,38 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Century" panose="02040604050505020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1408,25 +1472,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>34</c:v>
+                  <c:v>340</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>59</c:v>
+                  <c:v>590</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>92</c:v>
+                  <c:v>920</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>122</c:v>
+                  <c:v>1220</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>342</c:v>
+                  <c:v>3420</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>857</c:v>
+                  <c:v>8570</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1250</c:v>
+                  <c:v>12500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1550,25 +1614,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>3000</c:v>
+                  <c:v>30000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9000</c:v>
+                  <c:v>90000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12000</c:v>
+                  <c:v>120000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15000</c:v>
+                  <c:v>150000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>38000</c:v>
+                  <c:v>380000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>81000</c:v>
+                  <c:v>810000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>153000</c:v>
+                  <c:v>1530000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1583,11 +1647,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="182"/>
-        <c:axId val="-145961152"/>
-        <c:axId val="-145957344"/>
+        <c:axId val="-392805312"/>
+        <c:axId val="-392803680"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-145961152"/>
+        <c:axId val="-392805312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1614,7 +1678,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Query Anzahl</a:t>
+                  <a:t>Anzahl der Querys</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1686,7 +1750,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-145957344"/>
+        <c:crossAx val="-392803680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1694,7 +1758,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-145957344"/>
+        <c:axId val="-392803680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1801,7 +1865,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-145961152"/>
+        <c:crossAx val="-392805312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1813,6 +1877,38 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Century" panose="02040604050505020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -3543,15 +3639,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
+      <xdr:colOff>123825</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>61912</xdr:rowOff>
+      <xdr:rowOff>42862</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>638175</xdr:colOff>
+      <xdr:colOff>723900</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3574,9 +3670,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3614,7 +3710,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -3686,7 +3782,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3862,8 +3958,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:R73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="Y47" sqref="Y47"/>
+    <sheetView tabSelected="1" topLeftCell="N7" workbookViewId="0">
+      <selection activeCell="Y34" sqref="Y34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4095,25 +4191,25 @@
         <v>4</v>
       </c>
       <c r="J20">
-        <v>14</v>
+        <v>140</v>
       </c>
       <c r="K20">
-        <v>70</v>
+        <v>700</v>
       </c>
       <c r="L20">
-        <v>138</v>
+        <v>1380</v>
       </c>
       <c r="M20">
-        <v>427</v>
+        <v>4270</v>
       </c>
       <c r="N20">
-        <v>788</v>
+        <v>7880</v>
       </c>
       <c r="O20">
-        <v>1357</v>
+        <v>13570</v>
       </c>
       <c r="P20">
-        <v>1979</v>
+        <v>19790</v>
       </c>
     </row>
     <row r="21" spans="3:18" x14ac:dyDescent="0.25">
@@ -4133,25 +4229,25 @@
         <v>2</v>
       </c>
       <c r="J21">
-        <v>1013</v>
+        <v>10130</v>
       </c>
       <c r="K21">
-        <v>2256</v>
+        <v>22560</v>
       </c>
       <c r="L21">
-        <v>4725</v>
+        <v>47250</v>
       </c>
       <c r="M21">
-        <v>13268</v>
+        <v>132680</v>
       </c>
       <c r="N21">
-        <v>26080</v>
+        <v>260800</v>
       </c>
       <c r="O21">
-        <v>43682</v>
+        <v>436820</v>
       </c>
       <c r="P21">
-        <v>73389</v>
+        <v>733890</v>
       </c>
     </row>
     <row r="22" spans="3:18" x14ac:dyDescent="0.25">
@@ -4278,19 +4374,19 @@
         <v>4</v>
       </c>
       <c r="L33">
-        <v>555</v>
+        <v>5550</v>
       </c>
       <c r="M33">
-        <v>1371</v>
+        <v>13710</v>
       </c>
       <c r="N33">
-        <v>2614</v>
+        <v>26140</v>
       </c>
       <c r="O33">
-        <v>8425</v>
+        <v>84250</v>
       </c>
       <c r="P33">
-        <v>15370</v>
+        <v>153700</v>
       </c>
       <c r="Q33">
         <v>25624</v>
@@ -4316,19 +4412,19 @@
         <v>2</v>
       </c>
       <c r="L34">
-        <v>36000</v>
+        <v>360000</v>
       </c>
       <c r="M34">
-        <v>131000</v>
+        <v>1310000</v>
       </c>
       <c r="N34">
-        <v>287000</v>
+        <v>2870000</v>
       </c>
       <c r="O34">
-        <v>1028000</v>
+        <v>10280000</v>
       </c>
       <c r="P34">
-        <v>1820000</v>
+        <v>18200000</v>
       </c>
       <c r="Q34">
         <v>3538000</v>
@@ -4550,25 +4646,25 @@
         <v>4</v>
       </c>
       <c r="L61">
-        <v>34</v>
+        <v>340</v>
       </c>
       <c r="M61">
-        <v>59</v>
+        <v>590</v>
       </c>
       <c r="N61">
-        <v>92</v>
+        <v>920</v>
       </c>
       <c r="O61">
-        <v>122</v>
+        <v>1220</v>
       </c>
       <c r="P61">
-        <v>342</v>
+        <v>3420</v>
       </c>
       <c r="Q61">
-        <v>857</v>
+        <v>8570</v>
       </c>
       <c r="R61">
-        <v>1250</v>
+        <v>12500</v>
       </c>
     </row>
     <row r="62" spans="3:18" x14ac:dyDescent="0.25">
@@ -4576,25 +4672,25 @@
         <v>2</v>
       </c>
       <c r="L62">
-        <v>3000</v>
+        <v>30000</v>
       </c>
       <c r="M62">
-        <v>9000</v>
+        <v>90000</v>
       </c>
       <c r="N62">
-        <v>12000</v>
+        <v>120000</v>
       </c>
       <c r="O62">
-        <v>15000</v>
+        <v>150000</v>
       </c>
       <c r="P62">
-        <v>38000</v>
+        <v>380000</v>
       </c>
       <c r="Q62">
-        <v>81000</v>
+        <v>810000</v>
       </c>
       <c r="R62">
-        <v>153000</v>
+        <v>1530000</v>
       </c>
     </row>
     <row r="66" spans="4:8" x14ac:dyDescent="0.25">
